--- a/Data/SNR.xlsx
+++ b/Data/SNR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\NENR_FinalPjt\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE85FB3-6D0F-481A-A879-0AA72BCC40EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD52D1B-119D-4DEF-BE61-53F24496341A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{37B46265-E52F-4570-ADBD-17D1F6EFC866}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{37B46265-E52F-4570-ADBD-17D1F6EFC866}"/>
   </bookViews>
   <sheets>
     <sheet name="SNR" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Mean</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Peak</t>
+  </si>
+  <si>
+    <t>SNR</t>
   </si>
 </sst>
 </file>
@@ -420,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26585FFD-1F1D-45BE-B3C3-846FF48DEFCB}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,6 +543,35 @@
         <v>3.2732000000000001</v>
       </c>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <f xml:space="preserve"> 10 *LOG10(((B5-B3)^2)/((B4)^2))</f>
+        <v>30.284372760996</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:G6" si="0" xml:space="preserve"> 10 *LOG10(((C5-C3)^2)/((C4)^2))</f>
+        <v>30.62722029486217</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>44.324755224026148</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>34.198044829870199</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>37.179178077959811</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>33.022310451130245</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
